--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>Il6st</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H2">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I2">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J2">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>467.9893386167706</v>
+        <v>10.25720364410125</v>
       </c>
       <c r="R2">
-        <v>2807.936031700623</v>
+        <v>41.028814576405</v>
       </c>
       <c r="S2">
-        <v>0.09927135817442267</v>
+        <v>0.002228278359870344</v>
       </c>
       <c r="T2">
-        <v>0.07574504424032806</v>
+        <v>0.001123691840074942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H3">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I3">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J3">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
-        <v>695.2025957607328</v>
+        <v>26.12753583116833</v>
       </c>
       <c r="R3">
-        <v>6256.823361846596</v>
+        <v>156.76521498701</v>
       </c>
       <c r="S3">
-        <v>0.147468542961972</v>
+        <v>0.005675954647035839</v>
       </c>
       <c r="T3">
-        <v>0.1687799711234723</v>
+        <v>0.004293465329359078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H4">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I4">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J4">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>67.57187776131222</v>
+        <v>3.3975365478075</v>
       </c>
       <c r="R4">
-        <v>608.14689985181</v>
+        <v>20.385219286845</v>
       </c>
       <c r="S4">
-        <v>0.01433355746861271</v>
+        <v>0.0007380819791661063</v>
       </c>
       <c r="T4">
-        <v>0.01640497266100291</v>
+        <v>0.0005583077358500953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H5">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I5">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J5">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>194.4529417059203</v>
+        <v>7.182562613868749</v>
       </c>
       <c r="R5">
-        <v>1166.717650235522</v>
+        <v>28.73025045547499</v>
       </c>
       <c r="S5">
-        <v>0.04124796449682796</v>
+        <v>0.001560342311240118</v>
       </c>
       <c r="T5">
-        <v>0.03147261156784194</v>
+        <v>0.0007868603646836197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H6">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I6">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J6">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>230.3741519705731</v>
+        <v>0.6897309796900001</v>
       </c>
       <c r="R6">
-        <v>2073.367367735158</v>
+        <v>4.13838587814</v>
       </c>
       <c r="S6">
-        <v>0.04886768365705694</v>
+        <v>0.0001498373893609154</v>
       </c>
       <c r="T6">
-        <v>0.0559298008296993</v>
+        <v>0.0001133415744607349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H7">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I7">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J7">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>93.18895221118267</v>
+        <v>2.70186636282</v>
       </c>
       <c r="R7">
-        <v>838.7005699006439</v>
+        <v>16.21119817692</v>
       </c>
       <c r="S7">
-        <v>0.01976753120102801</v>
+        <v>0.0005869543548543759</v>
       </c>
       <c r="T7">
-        <v>0.02262423753757572</v>
+        <v>0.0004439901882936373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H8">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I8">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J8">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>793.5849014089172</v>
+        <v>165.1039721195645</v>
       </c>
       <c r="R8">
-        <v>4761.509408453503</v>
+        <v>990.623832717387</v>
       </c>
       <c r="S8">
-        <v>0.1683377044922181</v>
+        <v>0.03586724227847754</v>
       </c>
       <c r="T8">
-        <v>0.1284433607896741</v>
+        <v>0.02713107675424896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H9">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I9">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J9">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
-        <v>1178.877888643068</v>
+        <v>420.5590624012727</v>
       </c>
       <c r="R9">
-        <v>10609.90099778762</v>
+        <v>3785.031561611454</v>
       </c>
       <c r="S9">
-        <v>0.2500672546799754</v>
+        <v>0.09136239176990911</v>
       </c>
       <c r="T9">
-        <v>0.2862057437883284</v>
+        <v>0.1036639523739703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H10">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I10">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J10">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>114.5838537897511</v>
+        <v>54.68808058490701</v>
       </c>
       <c r="R10">
-        <v>1031.25468410776</v>
+        <v>492.192725264163</v>
       </c>
       <c r="S10">
-        <v>0.02430588445495079</v>
+        <v>0.01188045696843249</v>
       </c>
       <c r="T10">
-        <v>0.02781845127129878</v>
+        <v>0.01348011037690694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H11">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I11">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J11">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>329.7402437168186</v>
+        <v>115.6133444059275</v>
       </c>
       <c r="R11">
-        <v>1978.441462300912</v>
+        <v>693.680066435565</v>
       </c>
       <c r="S11">
-        <v>0.06994552896287005</v>
+        <v>0.02511588171500501</v>
       </c>
       <c r="T11">
-        <v>0.05336914174576874</v>
+        <v>0.01899841948454821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H12">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I12">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J12">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>390.6530204707075</v>
+        <v>11.102180320484</v>
       </c>
       <c r="R12">
-        <v>3515.877184236368</v>
+        <v>99.91962288435602</v>
       </c>
       <c r="S12">
-        <v>0.08286653715593419</v>
+        <v>0.002411841376449589</v>
       </c>
       <c r="T12">
-        <v>0.09484200133371744</v>
+        <v>0.002736585642498335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.262457</v>
+      </c>
+      <c r="H13">
+        <v>9.787371</v>
+      </c>
+      <c r="I13">
+        <v>0.176085661572535</v>
+      </c>
+      <c r="J13">
+        <v>0.1767301048980805</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.330536</v>
+      </c>
+      <c r="N13">
+        <v>39.991608</v>
+      </c>
+      <c r="O13">
+        <v>0.05365483696904789</v>
+      </c>
+      <c r="P13">
+        <v>0.06065723930900103</v>
+      </c>
+      <c r="Q13">
+        <v>43.490300486952</v>
+      </c>
+      <c r="R13">
+        <v>391.412704382568</v>
+      </c>
+      <c r="S13">
+        <v>0.009447847464261309</v>
+      </c>
+      <c r="T13">
+        <v>0.01071996026590773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H14">
+        <v>37.721587</v>
+      </c>
+      <c r="I14">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J14">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>50.6072485</v>
+      </c>
+      <c r="N14">
+        <v>101.214497</v>
+      </c>
+      <c r="O14">
+        <v>0.2036920096625967</v>
+      </c>
+      <c r="P14">
+        <v>0.1535170070198019</v>
+      </c>
+      <c r="Q14">
+        <v>636.3285757077898</v>
+      </c>
+      <c r="R14">
+        <v>3817.971454246739</v>
+      </c>
+      <c r="S14">
+        <v>0.1382362332088636</v>
+      </c>
+      <c r="T14">
+        <v>0.1045661058714418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H15">
+        <v>37.721587</v>
+      </c>
+      <c r="I15">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J15">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N15">
+        <v>386.726074</v>
+      </c>
+      <c r="O15">
+        <v>0.5188519664463093</v>
+      </c>
+      <c r="P15">
+        <v>0.5865664620849566</v>
+      </c>
+      <c r="Q15">
+        <v>1620.880138395493</v>
+      </c>
+      <c r="R15">
+        <v>14587.92124555944</v>
+      </c>
+      <c r="S15">
+        <v>0.3521205449018649</v>
+      </c>
+      <c r="T15">
+        <v>0.3995320907155332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H16">
+        <v>37.721587</v>
+      </c>
+      <c r="I16">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J16">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.762851</v>
+      </c>
+      <c r="N16">
+        <v>50.288553</v>
+      </c>
+      <c r="O16">
+        <v>0.06746975797083039</v>
+      </c>
+      <c r="P16">
+        <v>0.07627512236628199</v>
+      </c>
+      <c r="Q16">
+        <v>210.773780788179</v>
+      </c>
+      <c r="R16">
+        <v>1896.964027093611</v>
+      </c>
+      <c r="S16">
+        <v>0.04578856683112169</v>
+      </c>
+      <c r="T16">
+        <v>0.05195380417806764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H17">
+        <v>37.721587</v>
+      </c>
+      <c r="I17">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J17">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>35.4375075</v>
+      </c>
+      <c r="N17">
+        <v>70.87501499999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1426344512705199</v>
+      </c>
+      <c r="P17">
+        <v>0.1074996220678108</v>
+      </c>
+      <c r="Q17">
+        <v>445.5863407414674</v>
+      </c>
+      <c r="R17">
+        <v>2673.518044448805</v>
+      </c>
+      <c r="S17">
+        <v>0.0967993261105838</v>
+      </c>
+      <c r="T17">
+        <v>0.07322196465719756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H18">
+        <v>37.721587</v>
+      </c>
+      <c r="I18">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J18">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.403012</v>
+      </c>
+      <c r="N18">
+        <v>10.209036</v>
+      </c>
+      <c r="O18">
+        <v>0.01369697768069593</v>
+      </c>
+      <c r="P18">
+        <v>0.01548454715214769</v>
+      </c>
+      <c r="Q18">
+        <v>42.78900440668134</v>
+      </c>
+      <c r="R18">
+        <v>385.101039660132</v>
+      </c>
+      <c r="S18">
+        <v>0.00929549766857136</v>
+      </c>
+      <c r="T18">
+        <v>0.01054709721297495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H19">
+        <v>37.721587</v>
+      </c>
+      <c r="I19">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J19">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.330536</v>
+      </c>
+      <c r="N19">
+        <v>39.991608</v>
+      </c>
+      <c r="O19">
+        <v>0.05365483696904789</v>
+      </c>
+      <c r="P19">
+        <v>0.06065723930900103</v>
+      </c>
+      <c r="Q19">
+        <v>167.616324493544</v>
+      </c>
+      <c r="R19">
+        <v>1508.546920441896</v>
+      </c>
+      <c r="S19">
+        <v>0.03641302655083396</v>
+      </c>
+      <c r="T19">
+        <v>0.04131588695339958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.488668</v>
+      </c>
+      <c r="H20">
+        <v>7.466004</v>
+      </c>
+      <c r="I20">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J20">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.6072485</v>
+      </c>
+      <c r="N20">
+        <v>101.214497</v>
+      </c>
+      <c r="O20">
+        <v>0.2036920096625967</v>
+      </c>
+      <c r="P20">
+        <v>0.1535170070198019</v>
+      </c>
+      <c r="Q20">
+        <v>125.944639909998</v>
+      </c>
+      <c r="R20">
+        <v>755.6678394599879</v>
+      </c>
+      <c r="S20">
+        <v>0.0273602558153852</v>
+      </c>
+      <c r="T20">
+        <v>0.02069613255403619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.488668</v>
+      </c>
+      <c r="H21">
+        <v>7.466004</v>
+      </c>
+      <c r="I21">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J21">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N21">
+        <v>386.726074</v>
+      </c>
+      <c r="O21">
+        <v>0.5188519664463093</v>
+      </c>
+      <c r="P21">
+        <v>0.5865664620849566</v>
+      </c>
+      <c r="Q21">
+        <v>320.810935043144</v>
+      </c>
+      <c r="R21">
+        <v>2887.298415388296</v>
+      </c>
+      <c r="S21">
+        <v>0.06969307512749937</v>
+      </c>
+      <c r="T21">
+        <v>0.079076953666094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.145061333333333</v>
-      </c>
-      <c r="H13">
-        <v>27.435184</v>
-      </c>
-      <c r="I13">
-        <v>0.6290433620400798</v>
-      </c>
-      <c r="J13">
-        <v>0.6290433620400798</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>17.279662</v>
-      </c>
-      <c r="N13">
-        <v>51.83898600000001</v>
-      </c>
-      <c r="O13">
-        <v>0.05328798349515928</v>
-      </c>
-      <c r="P13">
-        <v>0.06098890064886813</v>
-      </c>
-      <c r="Q13">
-        <v>158.0235688092693</v>
-      </c>
-      <c r="R13">
-        <v>1422.212119283424</v>
-      </c>
-      <c r="S13">
-        <v>0.03352045229413127</v>
-      </c>
-      <c r="T13">
-        <v>0.03836466311129241</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.488668</v>
+      </c>
+      <c r="H22">
+        <v>7.466004</v>
+      </c>
+      <c r="I22">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J22">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.762851</v>
+      </c>
+      <c r="N22">
+        <v>50.288553</v>
+      </c>
+      <c r="O22">
+        <v>0.06746975797083039</v>
+      </c>
+      <c r="P22">
+        <v>0.07627512236628199</v>
+      </c>
+      <c r="Q22">
+        <v>41.717170872468</v>
+      </c>
+      <c r="R22">
+        <v>375.454537852212</v>
+      </c>
+      <c r="S22">
+        <v>0.009062652192110101</v>
+      </c>
+      <c r="T22">
+        <v>0.01028290007545732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.488668</v>
+      </c>
+      <c r="H23">
+        <v>7.466004</v>
+      </c>
+      <c r="I23">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J23">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.4375075</v>
+      </c>
+      <c r="N23">
+        <v>70.87501499999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1426344512705199</v>
+      </c>
+      <c r="P23">
+        <v>0.1074996220678108</v>
+      </c>
+      <c r="Q23">
+        <v>88.19219091500999</v>
+      </c>
+      <c r="R23">
+        <v>529.15314549006</v>
+      </c>
+      <c r="S23">
+        <v>0.01915890113369099</v>
+      </c>
+      <c r="T23">
+        <v>0.01449237756138138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.488668</v>
+      </c>
+      <c r="H24">
+        <v>7.466004</v>
+      </c>
+      <c r="I24">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J24">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.403012</v>
+      </c>
+      <c r="N24">
+        <v>10.209036</v>
+      </c>
+      <c r="O24">
+        <v>0.01369697768069593</v>
+      </c>
+      <c r="P24">
+        <v>0.01548454715214769</v>
+      </c>
+      <c r="Q24">
+        <v>8.468967068016001</v>
+      </c>
+      <c r="R24">
+        <v>76.22070361214401</v>
+      </c>
+      <c r="S24">
+        <v>0.001839801246314066</v>
+      </c>
+      <c r="T24">
+        <v>0.002087522722213671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.488668</v>
+      </c>
+      <c r="H25">
+        <v>7.466004</v>
+      </c>
+      <c r="I25">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J25">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.330536</v>
+      </c>
+      <c r="N25">
+        <v>39.991608</v>
+      </c>
+      <c r="O25">
+        <v>0.05365483696904789</v>
+      </c>
+      <c r="P25">
+        <v>0.06065723930900103</v>
+      </c>
+      <c r="Q25">
+        <v>33.175278366048</v>
+      </c>
+      <c r="R25">
+        <v>298.577505294432</v>
+      </c>
+      <c r="S25">
+        <v>0.007207008599098246</v>
+      </c>
+      <c r="T25">
+        <v>0.008177401901400094</v>
       </c>
     </row>
   </sheetData>
